--- a/CustomControlTest/ViewRepairList/改修リストUI案1.xlsx
+++ b/CustomControlTest/ViewRepairList/改修リストUI案1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daichi\Source\Repos\ViewRepairList\CustomControlTest\ViewRepairList\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="改修リスト案1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="おおざっぱDFD(予定)" sheetId="3" r:id="rId3"/>
-    <sheet name="フロー" sheetId="4" r:id="rId4"/>
-    <sheet name="クラス" sheetId="5" r:id="rId5"/>
+    <sheet name="Admiral" sheetId="5" r:id="rId3"/>
+    <sheet name="Fleet" sheetId="7" r:id="rId4"/>
+    <sheet name="UseItem" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <si>
     <t>改修装備リスト</t>
     <rPh sb="0" eb="2">
@@ -257,15 +257,265 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>絞り込み条件</t>
+    <t>提督情報</t>
+    <rPh sb="0" eb="2">
+      <t>テイトク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
     <rPh sb="0" eb="1">
-      <t>シボ</t>
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MemberId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NickName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提督コメント</t>
+    <rPh sb="0" eb="2">
+      <t>テイトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提督名</t>
+    <rPh sb="0" eb="2">
+      <t>テイトク</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウケン</t>
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Experience</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExperienceForNexeLevel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SortieWins</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SortieLoses</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SortieWinningRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaxShipCount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaxSortItemCount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fleet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提督経験値</t>
+    <rPh sb="0" eb="2">
+      <t>テイトク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイケンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のレベルまで</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提督レベル</t>
+    <rPh sb="0" eb="2">
+      <t>テイトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>階級</t>
+    <rPh sb="0" eb="2">
+      <t>カイキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演習の勝利数</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敗北数</t>
+    <rPh sb="0" eb="2">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝率</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大所持数</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Admiral</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Homeport</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>homeport</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>originalShips</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ship[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_Ships</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FleetState</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>艦隊ステータス</t>
+    <rPh sb="0" eb="2">
+      <t>カンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UseItem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費アイテム情報</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -321,7 +571,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -409,13 +659,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -454,6 +756,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1741,1659 +2055,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD193967-E88E-49A6-9213-1A627079C61A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="742950" y="304799"/>
-          <a:ext cx="1933575" cy="771525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>改修装備情報マスタ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D318640-5CB7-49A8-8062-5D2227FB1087}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1704975" y="1076324"/>
-          <a:ext cx="4763" cy="1228726"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49DF5EA8-C84C-41C7-871F-8C8C1BC0F886}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="990600" y="1704975"/>
-          <a:ext cx="8477250" cy="4772025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9262F18B-4EC1-4908-9A6C-EB102E4BD1D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="838199" y="1428750"/>
-          <a:ext cx="2305051" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>改修リストマスタ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(Json)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>読み込み</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14CB6E4B-B31A-4A06-97D3-4CC70A31DC74}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="838199" y="2533650"/>
-          <a:ext cx="2305051" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>初期絞り込み条件取得</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5208F681-B1A5-4F7A-A2B0-E02EFC78FEB2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="838199" y="3609975"/>
-          <a:ext cx="2305051" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>表示装備リスト作成</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C28C02-6D78-489A-802E-481BA420E073}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="838199" y="4772025"/>
-          <a:ext cx="2305051" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>改修装備リスト表示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72942144-5A57-4AB2-827A-689001D51ADF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3762374" y="4162425"/>
-          <a:ext cx="2305051" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>絞り込み条件変更</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FBD3971-2814-4DD8-918B-6EF1BE89AFA4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="3" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1990725" y="2047875"/>
-          <a:ext cx="0" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D4F7E9-2B6B-48C8-BF4B-93A107188390}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="4" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1990725" y="3152775"/>
-          <a:ext cx="0" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665C40CB-66C1-4427-9CBF-549EB9E6E8F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="5" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1990725" y="4229100"/>
-          <a:ext cx="0" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="コネクタ: カギ線 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A190025-7D97-4903-A5B7-7FF0F8DC9B04}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="6" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3143250" y="4781550"/>
-          <a:ext cx="1771650" cy="300038"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="コネクタ: カギ線 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{606F773D-47E5-471F-9700-4A8B9D3F78CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="0"/>
-          <a:endCxn id="4" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="3907632" y="3155157"/>
-          <a:ext cx="242887" cy="1771650"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="正方形/長方形 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0455ECE-D65B-485C-9AC9-A7E4A161665D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6657975" y="1400175"/>
-          <a:ext cx="2305051" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>装備分類取得</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="楕円 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9042CA60-7E7B-4B13-90E6-F5F7693BA793}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="904875" y="285750"/>
-          <a:ext cx="2162175" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>プラグイン起動</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>52388</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27ADBA5F-15E7-45EB-8981-5547D303048E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="30" idx="4"/>
-          <a:endCxn id="2" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1985963" y="1066800"/>
-          <a:ext cx="4762" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="楕円 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{995FB8FE-C636-40C0-918B-7DC409455292}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6724650" y="219075"/>
-          <a:ext cx="2162175" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>絞り込み条件取得</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>71438</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A963A5BE-3766-4B3E-AC29-BBECD2FAEE1A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="34" idx="4"/>
-          <a:endCxn id="29" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7805738" y="1000125"/>
-          <a:ext cx="4763" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAE5CA20-E93B-4863-B983-C160F8F188B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6657975" y="2333625"/>
-          <a:ext cx="2305051" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>曜日指定</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="正方形/長方形 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D372C45C-BEC5-41CF-8240-6783C29A3AC0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6657975" y="3257550"/>
-          <a:ext cx="2305051" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>コスト制限</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9173F918-A3BE-44BF-9A3F-859F53F0CA16}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="29" idx="2"/>
-          <a:endCxn id="38" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7810501" y="2019300"/>
-          <a:ext cx="0" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA88BEE-EAEA-4CB8-A45E-DCC26819C3AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="38" idx="2"/>
-          <a:endCxn id="40" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7810501" y="2952750"/>
-          <a:ext cx="0" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="正方形/長方形 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE98DEC-859A-47A3-92E4-88CE6F2F2FCA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10001249" y="1209675"/>
-          <a:ext cx="2305051" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="楕円 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F99D1541-2A84-4C3A-AA00-55EC0183DBAC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10039350" y="161925"/>
-          <a:ext cx="2162175" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>表示装備リスト作成</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4603,52 +3264,438 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I15"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP10" sqref="AP10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="15" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I15" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CustomControlTest/ViewRepairList/改修リストUI案1.xlsx
+++ b/CustomControlTest/ViewRepairList/改修リストUI案1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="改修リスト案1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Admiral" sheetId="5" r:id="rId3"/>
     <sheet name="Fleet" sheetId="7" r:id="rId4"/>
     <sheet name="UseItem" sheetId="6" r:id="rId5"/>
+    <sheet name="SlotItem" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="127">
   <si>
     <t>改修装備リスト</t>
     <rPh sb="0" eb="2">
@@ -510,12 +511,282 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>消費アイテム情報</t>
+    <t>Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所持数</t>
+    <rPh sb="0" eb="2">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UseItemInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費アイテム</t>
     <rPh sb="0" eb="2">
       <t>ショウヒ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費アイテム情報、特に使わない？</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒ</t>
+    </rPh>
     <rPh sb="6" eb="8">
       <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SlotItem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SlotItemInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LevelText</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NameWithLevel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Proficiency</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProficiencyText</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改修</t>
+    <rPh sb="0" eb="2">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SlotItemtype</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SlotItemIconType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>categoryId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iconType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IconType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CategoryId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備名</t>
+    <rPh sb="0" eb="2">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコンの種類</t>
+    <rPh sb="5" eb="7">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Firepower</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Armer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Torped</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bomb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ASW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Evade</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装甲</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雷装</t>
+    <rPh sb="0" eb="1">
+      <t>ライ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対空</t>
+    <rPh sb="0" eb="2">
+      <t>タイクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆装</t>
+    <rPh sb="0" eb="1">
+      <t>バク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対潜</t>
+    <rPh sb="0" eb="2">
+      <t>タイセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命中</t>
+    <rPh sb="0" eb="2">
+      <t>メイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火力</t>
+    <rPh sb="0" eb="2">
+      <t>カリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ViewRange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>索敵</t>
+    <rPh sb="0" eb="2">
+      <t>サクテキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3267,13 +3538,13 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
@@ -3580,12 +3851,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -3595,7 +3867,7 @@
         <v>74</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -3623,20 +3895,32 @@
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="13"/>
@@ -3644,22 +3928,192 @@
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B12:E12"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="E9" s="13"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="E10" s="13"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="E11" s="13"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
@@ -3668,35 +4122,233 @@
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-    </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="B16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CustomControlTest/ViewRepairList/改修リストUI案1.xlsx
+++ b/CustomControlTest/ViewRepairList/改修リストUI案1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="改修リスト案1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="Admiral" sheetId="5" r:id="rId3"/>
     <sheet name="Fleet" sheetId="7" r:id="rId4"/>
     <sheet name="UseItem" sheetId="6" r:id="rId5"/>
-    <sheet name="SlotItem" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <si>
     <t>改修装備リスト</t>
     <rPh sb="0" eb="2">
@@ -511,282 +510,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Count</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>所持数</t>
-    <rPh sb="0" eb="2">
-      <t>ショジ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテム名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UseItemInfo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>消費アイテム</t>
+    <t>消費アイテム情報</t>
     <rPh sb="0" eb="2">
       <t>ショウヒ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>消費アイテム情報、特に使わない？</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒ</t>
-    </rPh>
     <rPh sb="6" eb="8">
       <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SlotItem</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Info</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SlotItemInfo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテム情報</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LevelText</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NameWithLevel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Proficiency</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ProficiencyText</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>改修</t>
-    <rPh sb="0" eb="2">
-      <t>カイシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SlotItemtype</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SlotItemIconType</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>categoryId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>iconType</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IconType</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CategoryId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>装備名</t>
-    <rPh sb="0" eb="2">
-      <t>ソウビ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイコンの種類</t>
-    <rPh sb="5" eb="7">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Firepower</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Armer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Torped</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bomb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ASW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Hit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Evade</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>装甲</t>
-    <rPh sb="0" eb="2">
-      <t>ソウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>雷装</t>
-    <rPh sb="0" eb="1">
-      <t>ライ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対空</t>
-    <rPh sb="0" eb="2">
-      <t>タイクウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>爆装</t>
-    <rPh sb="0" eb="1">
-      <t>バク</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対潜</t>
-    <rPh sb="0" eb="2">
-      <t>タイセン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>命中</t>
-    <rPh sb="0" eb="2">
-      <t>メイチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回避</t>
-    <rPh sb="0" eb="2">
-      <t>カイヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>火力</t>
-    <rPh sb="0" eb="2">
-      <t>カリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ViewRange</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>索敵</t>
-    <rPh sb="0" eb="2">
-      <t>サクテキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3538,13 +3267,13 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
@@ -3851,13 +3580,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -3867,7 +3595,7 @@
         <v>74</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -3895,32 +3623,20 @@
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>80</v>
-      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>79</v>
-      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>78</v>
-      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="13"/>
@@ -3928,55 +3644,47 @@
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+    </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>35</v>
-      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>80</v>
-      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>79</v>
-      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" s="13"/>
@@ -3985,370 +3693,10 @@
       <c r="E16" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B12:E12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B2" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B16:E16"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/CustomControlTest/ViewRepairList/改修リストUI案1.xlsx
+++ b/CustomControlTest/ViewRepairList/改修リストUI案1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="改修リスト案1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="128">
   <si>
     <t>改修装備リスト</t>
     <rPh sb="0" eb="2">
@@ -788,6 +788,10 @@
     <rPh sb="0" eb="2">
       <t>サクテキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3731,7 +3735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -3852,7 +3856,7 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3899,7 +3903,7 @@
         <v>75</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
@@ -3998,7 +4002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
